--- a/females/data/fem_summary_data.xlsx
+++ b/females/data/fem_summary_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janya\Desktop\R\bb_soc_exp\females\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1754C-58C3-44D9-AE47-364C2B43A5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B5E1D-7CBB-4210-B81E-2CFAB4E6A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -182,7 +182,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -2100,31 +2099,28 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7">
-        <v>3</v>
-      </c>
-      <c r="G48" s="7">
-        <v>3</v>
-      </c>
-      <c r="H48" s="7">
-        <v>2</v>
-      </c>
-      <c r="I48" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -2137,31 +2133,28 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="7">
-        <v>2</v>
-      </c>
-      <c r="F49" s="7">
-        <v>4</v>
-      </c>
-      <c r="G49" s="7">
-        <v>3</v>
-      </c>
-      <c r="H49" s="7">
-        <v>2</v>
-      </c>
-      <c r="I49" s="7">
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -2174,31 +2167,28 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="7">
-        <v>2</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>9</v>
       </c>
-      <c r="G50" s="7">
-        <v>4</v>
-      </c>
-      <c r="H50" s="7">
-        <v>3</v>
-      </c>
-      <c r="I50" s="7">
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <f>G50/F50</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50">
         <f>H50/G50</f>
         <v>0.75</v>
       </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -2211,29 +2201,26 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -2246,35 +2233,34 @@
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="7">
-        <v>2</v>
-      </c>
-      <c r="F52" s="7">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>9</v>
       </c>
-      <c r="G52" s="7">
-        <v>4</v>
-      </c>
-      <c r="H52" s="7">
-        <v>3</v>
-      </c>
-      <c r="I52" s="7">
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <f>G52/F52</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="J52" s="7">
-        <f t="shared" ref="J51:J52" si="2">H52/G52</f>
+      <c r="J52">
+        <f t="shared" ref="J52" si="2">H52/G52</f>
         <v>0.75</v>
       </c>
-      <c r="K52" s="7">
-        <v>4</v>
-      </c>
-      <c r="L52" s="7">
-        <v>6</v>
-      </c>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -2287,31 +2273,28 @@
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="7">
-        <v>4</v>
-      </c>
-      <c r="F53" s="7">
-        <v>6</v>
-      </c>
-      <c r="G53" s="7">
-        <v>2</v>
-      </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -2324,30 +2307,27 @@
       <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>2</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -2360,31 +2340,28 @@
       <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="7">
-        <v>4</v>
-      </c>
-      <c r="F55" s="7">
-        <v>8</v>
-      </c>
-      <c r="G55" s="7">
-        <v>2</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -2397,31 +2374,28 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>7</v>
       </c>
-      <c r="G56" s="7">
-        <v>3</v>
-      </c>
-      <c r="H56" s="7">
-        <v>3</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -2434,31 +2408,28 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="7">
-        <v>4</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
         <v>13</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57">
         <v>11</v>
       </c>
-      <c r="H57" s="7">
-        <v>8</v>
-      </c>
-      <c r="I57" s="7">
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57">
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -2492,7 +2463,7 @@
         <v>0.7857142857142857</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -2526,7 +2497,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -2560,7 +2531,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -2594,7 +2565,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -2628,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -2662,7 +2633,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>4</v>
       </c>
